--- a/dataset/all.xlsx
+++ b/dataset/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2024\07-Juli\Zulfa\backprosiswa\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inang\Downloads\SKRIPSI\backprosiswa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D6352-BC4A-4AB5-850C-E7792E19A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75501009-BF08-4909-A661-66E3F9E8B83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70AC6284-4446-41DB-9120-EDD5798763A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>nama</t>
   </si>
@@ -357,9 +357,6 @@
     <t>zulfan khoirudin</t>
   </si>
   <si>
-    <t>TKI</t>
-  </si>
-  <si>
     <t>ADZKIYAH DWI JIHAN NABILA</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>WULAN MAULA ANJANI</t>
   </si>
   <si>
-    <t>BDP</t>
-  </si>
-  <si>
     <t>indo1</t>
   </si>
   <si>
@@ -495,16 +489,16 @@
     <t>mtk2</t>
   </si>
   <si>
-    <t>mkt3</t>
-  </si>
-  <si>
-    <t>mkt4</t>
-  </si>
-  <si>
     <t>indo</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>mtk3</t>
+  </si>
+  <si>
+    <t>mtk4</t>
   </si>
 </sst>
 </file>
@@ -867,7 +861,7 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +872,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -890,34 +884,34 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" t="s">
-        <v>151</v>
-      </c>
       <c r="N1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O1" t="s">
         <v>153</v>
@@ -926,13 +920,13 @@
         <v>154</v>
       </c>
       <c r="Q1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -945,8 +939,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>107</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -1004,8 +998,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>107</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -1063,8 +1057,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>107</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -1122,8 +1116,8 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>107</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>80</v>
@@ -1181,8 +1175,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>107</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -1240,8 +1234,8 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>107</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -1299,8 +1293,8 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>107</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -1358,8 +1352,8 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>107</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -1417,8 +1411,8 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>107</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>80</v>
@@ -1476,8 +1470,8 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>107</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1535,8 +1529,8 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>107</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>80</v>
@@ -1594,8 +1588,8 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>107</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>80</v>
@@ -1653,8 +1647,8 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>107</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -1712,8 +1706,8 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
-        <v>107</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>80</v>
@@ -1771,8 +1765,8 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>107</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>80</v>
@@ -1830,8 +1824,8 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>107</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -1889,8 +1883,8 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>107</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
         <v>80</v>
@@ -1948,8 +1942,8 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>107</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -2007,8 +2001,8 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>107</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
         <v>80</v>
@@ -2066,8 +2060,8 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
-        <v>107</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -2125,8 +2119,8 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="s">
-        <v>107</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
         <v>80</v>
@@ -2184,8 +2178,8 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="s">
-        <v>107</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
         <v>80</v>
@@ -2243,8 +2237,8 @@
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
-        <v>107</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -2302,8 +2296,8 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" t="s">
-        <v>107</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>80</v>
@@ -2361,8 +2355,8 @@
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
-        <v>107</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>80</v>
@@ -2420,8 +2414,8 @@
       <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="D27" t="s">
-        <v>107</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27">
         <v>80</v>
@@ -2479,8 +2473,8 @@
       <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="s">
-        <v>107</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>80</v>
@@ -2538,8 +2532,8 @@
       <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" t="s">
-        <v>107</v>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -2597,8 +2591,8 @@
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s">
-        <v>107</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30">
         <v>80</v>
@@ -2656,8 +2650,8 @@
       <c r="C31" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
-        <v>107</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
         <v>80</v>
@@ -2715,8 +2709,8 @@
       <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s">
-        <v>107</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>80</v>
@@ -2774,8 +2768,8 @@
       <c r="C33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
-        <v>107</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
         <v>80</v>
@@ -2833,8 +2827,8 @@
       <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>107</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34">
         <v>80</v>
@@ -2892,8 +2886,8 @@
       <c r="C35" t="s">
         <v>54</v>
       </c>
-      <c r="D35" t="s">
-        <v>107</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>80</v>
@@ -2951,8 +2945,8 @@
       <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="D36" t="s">
-        <v>107</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36">
         <v>80</v>
@@ -3010,8 +3004,8 @@
       <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="D37" t="s">
-        <v>107</v>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37">
         <v>80</v>
@@ -3069,8 +3063,8 @@
       <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" t="s">
-        <v>107</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38">
         <v>80</v>
@@ -3128,8 +3122,8 @@
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="D39" t="s">
-        <v>107</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>80</v>
@@ -3187,8 +3181,8 @@
       <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="D40" t="s">
-        <v>107</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>80</v>
@@ -3246,8 +3240,8 @@
       <c r="C41" t="s">
         <v>64</v>
       </c>
-      <c r="D41" t="s">
-        <v>107</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41">
         <v>80</v>
@@ -3305,8 +3299,8 @@
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42" t="s">
-        <v>107</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42">
         <v>80</v>
@@ -3364,8 +3358,8 @@
       <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="D43" t="s">
-        <v>107</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43">
         <v>80</v>
@@ -3423,8 +3417,8 @@
       <c r="C44" t="s">
         <v>67</v>
       </c>
-      <c r="D44" t="s">
-        <v>107</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
         <v>80</v>
@@ -3482,8 +3476,8 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="D45" t="s">
-        <v>107</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45">
         <v>80</v>
@@ -3541,8 +3535,8 @@
       <c r="C46" t="s">
         <v>71</v>
       </c>
-      <c r="D46" t="s">
-        <v>107</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46">
         <v>80</v>
@@ -3600,8 +3594,8 @@
       <c r="C47" t="s">
         <v>73</v>
       </c>
-      <c r="D47" t="s">
-        <v>107</v>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47">
         <v>80</v>
@@ -3659,8 +3653,8 @@
       <c r="C48" t="s">
         <v>74</v>
       </c>
-      <c r="D48" t="s">
-        <v>107</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48">
         <v>80</v>
@@ -3718,8 +3712,8 @@
       <c r="C49" t="s">
         <v>76</v>
       </c>
-      <c r="D49" t="s">
-        <v>107</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49">
         <v>80</v>
@@ -3777,8 +3771,8 @@
       <c r="C50" t="s">
         <v>77</v>
       </c>
-      <c r="D50" t="s">
-        <v>107</v>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50">
         <v>80</v>
@@ -3836,8 +3830,8 @@
       <c r="C51" t="s">
         <v>79</v>
       </c>
-      <c r="D51" t="s">
-        <v>107</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51">
         <v>80</v>
@@ -3895,8 +3889,8 @@
       <c r="C52" t="s">
         <v>80</v>
       </c>
-      <c r="D52" t="s">
-        <v>107</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52">
         <v>80</v>
@@ -3954,8 +3948,8 @@
       <c r="C53" t="s">
         <v>81</v>
       </c>
-      <c r="D53" t="s">
-        <v>107</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>80</v>
@@ -4013,8 +4007,8 @@
       <c r="C54" t="s">
         <v>82</v>
       </c>
-      <c r="D54" t="s">
-        <v>107</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54">
         <v>80</v>
@@ -4072,8 +4066,8 @@
       <c r="C55" t="s">
         <v>84</v>
       </c>
-      <c r="D55" t="s">
-        <v>107</v>
+      <c r="D55">
+        <v>1</v>
       </c>
       <c r="E55">
         <v>80</v>
@@ -4131,8 +4125,8 @@
       <c r="C56" t="s">
         <v>86</v>
       </c>
-      <c r="D56" t="s">
-        <v>107</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
         <v>80</v>
@@ -4190,8 +4184,8 @@
       <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="D57" t="s">
-        <v>107</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57">
         <v>85</v>
@@ -4249,8 +4243,8 @@
       <c r="C58" t="s">
         <v>89</v>
       </c>
-      <c r="D58" t="s">
-        <v>107</v>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58">
         <v>80</v>
@@ -4308,8 +4302,8 @@
       <c r="C59" t="s">
         <v>91</v>
       </c>
-      <c r="D59" t="s">
-        <v>107</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="E59">
         <v>80</v>
@@ -4367,8 +4361,8 @@
       <c r="C60" t="s">
         <v>93</v>
       </c>
-      <c r="D60" t="s">
-        <v>107</v>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60">
         <v>80</v>
@@ -4426,8 +4420,8 @@
       <c r="C61" t="s">
         <v>94</v>
       </c>
-      <c r="D61" t="s">
-        <v>107</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61">
         <v>80</v>
@@ -4485,8 +4479,8 @@
       <c r="C62" t="s">
         <v>95</v>
       </c>
-      <c r="D62" t="s">
-        <v>107</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62">
         <v>80</v>
@@ -4544,8 +4538,8 @@
       <c r="C63" t="s">
         <v>96</v>
       </c>
-      <c r="D63" t="s">
-        <v>107</v>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63">
         <v>80</v>
@@ -4603,8 +4597,8 @@
       <c r="C64" t="s">
         <v>97</v>
       </c>
-      <c r="D64" t="s">
-        <v>107</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
         <v>80</v>
@@ -4662,8 +4656,8 @@
       <c r="C65" t="s">
         <v>98</v>
       </c>
-      <c r="D65" t="s">
-        <v>107</v>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="E65">
         <v>80</v>
@@ -4721,8 +4715,8 @@
       <c r="C66" t="s">
         <v>99</v>
       </c>
-      <c r="D66" t="s">
-        <v>107</v>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66">
         <v>80</v>
@@ -4780,8 +4774,8 @@
       <c r="C67" t="s">
         <v>101</v>
       </c>
-      <c r="D67" t="s">
-        <v>107</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67">
         <v>80</v>
@@ -4839,8 +4833,8 @@
       <c r="C68" t="s">
         <v>103</v>
       </c>
-      <c r="D68" t="s">
-        <v>107</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68">
         <v>80</v>
@@ -4898,8 +4892,8 @@
       <c r="C69" t="s">
         <v>105</v>
       </c>
-      <c r="D69" t="s">
-        <v>107</v>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="E69">
         <v>80</v>
@@ -4957,8 +4951,8 @@
       <c r="C70" t="s">
         <v>106</v>
       </c>
-      <c r="D70" t="s">
-        <v>107</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70">
         <v>80</v>
@@ -5014,10 +5008,10 @@
         <v>3078292088</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" t="s">
-        <v>140</v>
+        <v>107</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
       </c>
       <c r="E71">
         <v>80</v>
@@ -5073,10 +5067,10 @@
         <v>3057174984</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72">
         <v>80</v>
@@ -5129,13 +5123,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
         <v>110</v>
       </c>
-      <c r="C73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" t="s">
-        <v>140</v>
+      <c r="D73">
+        <v>2</v>
       </c>
       <c r="E73">
         <v>80</v>
@@ -5188,13 +5182,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
         <v>112</v>
       </c>
-      <c r="C74" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" t="s">
-        <v>140</v>
+      <c r="D74">
+        <v>2</v>
       </c>
       <c r="E74">
         <v>80</v>
@@ -5247,13 +5241,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" t="s">
         <v>114</v>
       </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" t="s">
-        <v>140</v>
+      <c r="D75">
+        <v>2</v>
       </c>
       <c r="E75">
         <v>80</v>
@@ -5306,13 +5300,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s">
         <v>116</v>
       </c>
-      <c r="C76" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" t="s">
-        <v>140</v>
+      <c r="D76">
+        <v>2</v>
       </c>
       <c r="E76">
         <v>80</v>
@@ -5365,13 +5359,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
         <v>118</v>
       </c>
-      <c r="C77" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" t="s">
-        <v>140</v>
+      <c r="D77">
+        <v>2</v>
       </c>
       <c r="E77">
         <v>80</v>
@@ -5427,10 +5421,10 @@
         <v>3063091194</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
       </c>
       <c r="E78">
         <v>80</v>
@@ -5483,13 +5477,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="C79" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" t="s">
-        <v>140</v>
+      <c r="D79">
+        <v>2</v>
       </c>
       <c r="E79">
         <v>80</v>
@@ -5542,13 +5536,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
         <v>123</v>
       </c>
-      <c r="C80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" t="s">
-        <v>140</v>
+      <c r="D80">
+        <v>2</v>
       </c>
       <c r="E80">
         <v>80</v>
@@ -5601,13 +5595,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
         <v>125</v>
       </c>
-      <c r="C81" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" t="s">
-        <v>140</v>
+      <c r="D81">
+        <v>2</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -5660,13 +5654,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" t="s">
         <v>127</v>
       </c>
-      <c r="C82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" t="s">
-        <v>140</v>
+      <c r="D82">
+        <v>2</v>
       </c>
       <c r="E82">
         <v>80</v>
@@ -5719,13 +5713,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
         <v>129</v>
       </c>
-      <c r="C83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" t="s">
-        <v>140</v>
+      <c r="D83">
+        <v>2</v>
       </c>
       <c r="E83">
         <v>80</v>
@@ -5781,10 +5775,10 @@
         <v>3073582283</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" t="s">
-        <v>140</v>
+        <v>130</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
       </c>
       <c r="E84">
         <v>80</v>
@@ -5837,13 +5831,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
         <v>132</v>
       </c>
-      <c r="C85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85" t="s">
-        <v>140</v>
+      <c r="D85">
+        <v>2</v>
       </c>
       <c r="E85">
         <v>80</v>
@@ -5899,10 +5893,10 @@
         <v>3065869370</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
-      </c>
-      <c r="D86" t="s">
-        <v>140</v>
+        <v>133</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
       </c>
       <c r="E86">
         <v>80</v>
@@ -5955,13 +5949,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" t="s">
         <v>135</v>
       </c>
-      <c r="C87" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" t="s">
-        <v>140</v>
+      <c r="D87">
+        <v>2</v>
       </c>
       <c r="E87">
         <v>80</v>
@@ -6017,10 +6011,10 @@
         <v>3067311756</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
-      </c>
-      <c r="D88" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
       </c>
       <c r="E88">
         <v>80</v>
@@ -6073,13 +6067,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" t="s">
         <v>138</v>
       </c>
-      <c r="C89" t="s">
-        <v>139</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
+      <c r="D89">
+        <v>2</v>
       </c>
       <c r="E89">
         <v>80</v>

--- a/dataset/all.xlsx
+++ b/dataset/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inang\Downloads\SKRIPSI\backprosiswa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75501009-BF08-4909-A661-66E3F9E8B83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDA1A14-3411-4AED-BE81-2F60702D8781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70AC6284-4446-41DB-9120-EDD5798763A9}"/>
   </bookViews>

--- a/dataset/all.xlsx
+++ b/dataset/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inang\Downloads\SKRIPSI\backprosiswa\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2025\06-Juni\02-Zulfa\backprosiswa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDA1A14-3411-4AED-BE81-2F60702D8781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584A489-7378-4EE3-AAC0-BAC29FE1327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70AC6284-4446-41DB-9120-EDD5798763A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>nama</t>
   </si>
@@ -499,6 +499,339 @@
   </si>
   <si>
     <t>mtk4</t>
+  </si>
+  <si>
+    <t>0073887237</t>
+  </si>
+  <si>
+    <t>Anisatul Maghfiroh</t>
+  </si>
+  <si>
+    <t>0065421570</t>
+  </si>
+  <si>
+    <t>Dina Febriana</t>
+  </si>
+  <si>
+    <t>0064238451</t>
+  </si>
+  <si>
+    <t>Intan Listianawati</t>
+  </si>
+  <si>
+    <t>0074041785</t>
+  </si>
+  <si>
+    <t>Kamelia Nur Fazriah</t>
+  </si>
+  <si>
+    <t>0056132222</t>
+  </si>
+  <si>
+    <t>Kurnia</t>
+  </si>
+  <si>
+    <t>0078830476</t>
+  </si>
+  <si>
+    <t>Laela Widia Silfani</t>
+  </si>
+  <si>
+    <t>0063791072</t>
+  </si>
+  <si>
+    <t>Lulu Amelia Rahmah</t>
+  </si>
+  <si>
+    <t>0056206811</t>
+  </si>
+  <si>
+    <t>Lutf Fasiha</t>
+  </si>
+  <si>
+    <t>0059963845</t>
+  </si>
+  <si>
+    <t>Muti Atun Khasanah</t>
+  </si>
+  <si>
+    <t>0055402313</t>
+  </si>
+  <si>
+    <t>Nindya Lintang Anggraini</t>
+  </si>
+  <si>
+    <t>0051266166</t>
+  </si>
+  <si>
+    <t>Noval Ubaidillahil Ali</t>
+  </si>
+  <si>
+    <t>0057498426</t>
+  </si>
+  <si>
+    <t>Novi Zakiyatul Umamah</t>
+  </si>
+  <si>
+    <t>0052985307</t>
+  </si>
+  <si>
+    <t>Nur Waidah</t>
+  </si>
+  <si>
+    <t>0068127230</t>
+  </si>
+  <si>
+    <t>Nurfa Aidah</t>
+  </si>
+  <si>
+    <t>0059757268</t>
+  </si>
+  <si>
+    <t>Putri Tangguh Pratiwi</t>
+  </si>
+  <si>
+    <t>0066285858</t>
+  </si>
+  <si>
+    <t>Risya Afriliana</t>
+  </si>
+  <si>
+    <t>0063472530</t>
+  </si>
+  <si>
+    <t>Tri Sinta Raharjani Mustofa</t>
+  </si>
+  <si>
+    <t>0064968908</t>
+  </si>
+  <si>
+    <t>Wulan Riskiana</t>
+  </si>
+  <si>
+    <t>0061609459</t>
+  </si>
+  <si>
+    <t>Alya Azzahra</t>
+  </si>
+  <si>
+    <t>0056345492</t>
+  </si>
+  <si>
+    <t>Ati Dina Nasikhah</t>
+  </si>
+  <si>
+    <t>0058274260</t>
+  </si>
+  <si>
+    <t>Atiqotun Najiyah</t>
+  </si>
+  <si>
+    <t>0071803322</t>
+  </si>
+  <si>
+    <t>Eva Nurfadhilah</t>
+  </si>
+  <si>
+    <t>0063400296</t>
+  </si>
+  <si>
+    <t>Fika Khurotul Salamah</t>
+  </si>
+  <si>
+    <t>0058452847</t>
+  </si>
+  <si>
+    <t>Inayatul Fitroh</t>
+  </si>
+  <si>
+    <t>0066040881</t>
+  </si>
+  <si>
+    <t>Nahdiya Fitri Maelani</t>
+  </si>
+  <si>
+    <t>0057638183</t>
+  </si>
+  <si>
+    <t>Rahma Septiani</t>
+  </si>
+  <si>
+    <t>0068007538</t>
+  </si>
+  <si>
+    <t>Retno Kurniasih</t>
+  </si>
+  <si>
+    <t>3068782225</t>
+  </si>
+  <si>
+    <t>Siti Kholifah</t>
+  </si>
+  <si>
+    <t>0054204351</t>
+  </si>
+  <si>
+    <t>Thesa Aulia Renata</t>
+  </si>
+  <si>
+    <t>Asyifa Iza Asyfia</t>
+  </si>
+  <si>
+    <t>Davina Dini Aulia</t>
+  </si>
+  <si>
+    <t>Irsyad Adjiastiar Alfauzan</t>
+  </si>
+  <si>
+    <t>0044467807</t>
+  </si>
+  <si>
+    <t>Mely Yulistia Setyarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Afifah </t>
+  </si>
+  <si>
+    <t>Rafi Jauhari Robbani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safir Dzikria Nur Islami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siti Khumaeroh </t>
+  </si>
+  <si>
+    <t>0052079061</t>
+  </si>
+  <si>
+    <t>Amelia Indriyanti</t>
+  </si>
+  <si>
+    <t>0054695342</t>
+  </si>
+  <si>
+    <t>Atiya Nizrina Fitriatuz Zahra</t>
+  </si>
+  <si>
+    <t>0066934587</t>
+  </si>
+  <si>
+    <t>Aulia Toyibah</t>
+  </si>
+  <si>
+    <t>0052663526</t>
+  </si>
+  <si>
+    <t>Deva Arla Aelani</t>
+  </si>
+  <si>
+    <t>0051048637</t>
+  </si>
+  <si>
+    <t>Dina Fuji Lestari</t>
+  </si>
+  <si>
+    <t>0067420535</t>
+  </si>
+  <si>
+    <t>Eka Septy Dhea Ardhina</t>
+  </si>
+  <si>
+    <t>0051919273</t>
+  </si>
+  <si>
+    <t>Ellen Listi Lafenia</t>
+  </si>
+  <si>
+    <t>0062691503</t>
+  </si>
+  <si>
+    <t>Elvira Putri Salsabila</t>
+  </si>
+  <si>
+    <t>0055802659</t>
+  </si>
+  <si>
+    <t>Farah Anbiya Rahma</t>
+  </si>
+  <si>
+    <t>0049777607</t>
+  </si>
+  <si>
+    <t>Fitriya Nurul Amanah</t>
+  </si>
+  <si>
+    <t>0066417481</t>
+  </si>
+  <si>
+    <t>Imelda Putri Nabila</t>
+  </si>
+  <si>
+    <t>0059628602</t>
+  </si>
+  <si>
+    <t>Khusnul Khotimah</t>
+  </si>
+  <si>
+    <t>0069716561</t>
+  </si>
+  <si>
+    <t>Miska Nuril Laeli</t>
+  </si>
+  <si>
+    <t>0069476442</t>
+  </si>
+  <si>
+    <t>Nabila Salwa Salsabila</t>
+  </si>
+  <si>
+    <t>0076996863</t>
+  </si>
+  <si>
+    <t>Nila Aminatul Faradis</t>
+  </si>
+  <si>
+    <t>0077198364</t>
+  </si>
+  <si>
+    <t>Pradika Eka Ramdani Rizki</t>
+  </si>
+  <si>
+    <t>0063521082</t>
+  </si>
+  <si>
+    <t>Sagisna Eka Nurafisa</t>
+  </si>
+  <si>
+    <t>0065706366</t>
+  </si>
+  <si>
+    <t>Salsa Maulidatun Nadhifa</t>
+  </si>
+  <si>
+    <t>0063766569</t>
+  </si>
+  <si>
+    <t>Salvy Mei Lida</t>
+  </si>
+  <si>
+    <t>0053741594</t>
+  </si>
+  <si>
+    <t>Suci Nia Ramadhani</t>
+  </si>
+  <si>
+    <t>0060150709</t>
+  </si>
+  <si>
+    <t>Syifa Rahma Dina</t>
+  </si>
+  <si>
+    <t>0057912950</t>
+  </si>
+  <si>
+    <t>Windi Ayuningsih</t>
   </si>
 </sst>
 </file>
@@ -858,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6241D0-5852-4839-8B67-6E50C3332E3E}">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="B129" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6121,6 +6454,3466 @@
         <v>83</v>
       </c>
     </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>80</v>
+      </c>
+      <c r="F90">
+        <v>88</v>
+      </c>
+      <c r="G90">
+        <v>80</v>
+      </c>
+      <c r="H90">
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <v>80</v>
+      </c>
+      <c r="J90">
+        <v>82</v>
+      </c>
+      <c r="K90">
+        <v>88</v>
+      </c>
+      <c r="L90">
+        <v>84</v>
+      </c>
+      <c r="M90">
+        <v>81</v>
+      </c>
+      <c r="N90">
+        <v>82</v>
+      </c>
+      <c r="O90">
+        <v>78</v>
+      </c>
+      <c r="P90">
+        <v>78</v>
+      </c>
+      <c r="Q90">
+        <v>84</v>
+      </c>
+      <c r="R90">
+        <v>82</v>
+      </c>
+      <c r="S90">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>80</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>80</v>
+      </c>
+      <c r="H91">
+        <v>80</v>
+      </c>
+      <c r="I91">
+        <v>80</v>
+      </c>
+      <c r="J91">
+        <v>82</v>
+      </c>
+      <c r="K91">
+        <v>88</v>
+      </c>
+      <c r="L91">
+        <v>84</v>
+      </c>
+      <c r="M91">
+        <v>81</v>
+      </c>
+      <c r="N91">
+        <v>82</v>
+      </c>
+      <c r="O91">
+        <v>78</v>
+      </c>
+      <c r="P91">
+        <v>78</v>
+      </c>
+      <c r="Q91">
+        <v>82</v>
+      </c>
+      <c r="R91">
+        <v>81</v>
+      </c>
+      <c r="S91">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>80</v>
+      </c>
+      <c r="F92">
+        <v>88</v>
+      </c>
+      <c r="G92">
+        <v>80</v>
+      </c>
+      <c r="H92">
+        <v>80</v>
+      </c>
+      <c r="I92">
+        <v>80</v>
+      </c>
+      <c r="J92">
+        <v>82</v>
+      </c>
+      <c r="K92">
+        <v>88</v>
+      </c>
+      <c r="L92">
+        <v>84</v>
+      </c>
+      <c r="M92">
+        <v>81</v>
+      </c>
+      <c r="N92">
+        <v>82</v>
+      </c>
+      <c r="O92">
+        <v>78</v>
+      </c>
+      <c r="P92">
+        <v>78</v>
+      </c>
+      <c r="Q92">
+        <v>78</v>
+      </c>
+      <c r="R92">
+        <v>80</v>
+      </c>
+      <c r="S92">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>80</v>
+      </c>
+      <c r="F93">
+        <v>88</v>
+      </c>
+      <c r="G93">
+        <v>80</v>
+      </c>
+      <c r="H93">
+        <v>80</v>
+      </c>
+      <c r="I93">
+        <v>80</v>
+      </c>
+      <c r="J93">
+        <v>82</v>
+      </c>
+      <c r="K93">
+        <v>88</v>
+      </c>
+      <c r="L93">
+        <v>84</v>
+      </c>
+      <c r="M93">
+        <v>81</v>
+      </c>
+      <c r="N93">
+        <v>82</v>
+      </c>
+      <c r="O93">
+        <v>78</v>
+      </c>
+      <c r="P93">
+        <v>78</v>
+      </c>
+      <c r="Q93">
+        <v>78</v>
+      </c>
+      <c r="R93">
+        <v>81</v>
+      </c>
+      <c r="S93">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>80</v>
+      </c>
+      <c r="F94">
+        <v>88</v>
+      </c>
+      <c r="G94">
+        <v>80</v>
+      </c>
+      <c r="H94">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>80</v>
+      </c>
+      <c r="J94">
+        <v>82</v>
+      </c>
+      <c r="K94">
+        <v>88</v>
+      </c>
+      <c r="L94">
+        <v>84</v>
+      </c>
+      <c r="M94">
+        <v>81</v>
+      </c>
+      <c r="N94">
+        <v>82</v>
+      </c>
+      <c r="O94">
+        <v>78</v>
+      </c>
+      <c r="P94">
+        <v>78</v>
+      </c>
+      <c r="Q94">
+        <v>84</v>
+      </c>
+      <c r="R94">
+        <v>80</v>
+      </c>
+      <c r="S94">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>80</v>
+      </c>
+      <c r="F95">
+        <v>88</v>
+      </c>
+      <c r="G95">
+        <v>80</v>
+      </c>
+      <c r="H95">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>80</v>
+      </c>
+      <c r="J95">
+        <v>82</v>
+      </c>
+      <c r="K95">
+        <v>88</v>
+      </c>
+      <c r="L95">
+        <v>84</v>
+      </c>
+      <c r="M95">
+        <v>81</v>
+      </c>
+      <c r="N95">
+        <v>82</v>
+      </c>
+      <c r="O95">
+        <v>78</v>
+      </c>
+      <c r="P95">
+        <v>78</v>
+      </c>
+      <c r="Q95">
+        <v>84</v>
+      </c>
+      <c r="R95">
+        <v>79</v>
+      </c>
+      <c r="S95">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>80</v>
+      </c>
+      <c r="F96">
+        <v>88</v>
+      </c>
+      <c r="G96">
+        <v>80</v>
+      </c>
+      <c r="H96">
+        <v>80</v>
+      </c>
+      <c r="I96">
+        <v>80</v>
+      </c>
+      <c r="J96">
+        <v>82</v>
+      </c>
+      <c r="K96">
+        <v>88</v>
+      </c>
+      <c r="L96">
+        <v>84</v>
+      </c>
+      <c r="M96">
+        <v>81</v>
+      </c>
+      <c r="N96">
+        <v>82</v>
+      </c>
+      <c r="O96">
+        <v>78</v>
+      </c>
+      <c r="P96">
+        <v>78</v>
+      </c>
+      <c r="Q96">
+        <v>80</v>
+      </c>
+      <c r="R96">
+        <v>81</v>
+      </c>
+      <c r="S96">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>80</v>
+      </c>
+      <c r="F97">
+        <v>88</v>
+      </c>
+      <c r="G97">
+        <v>80</v>
+      </c>
+      <c r="H97">
+        <v>80</v>
+      </c>
+      <c r="I97">
+        <v>80</v>
+      </c>
+      <c r="J97">
+        <v>82</v>
+      </c>
+      <c r="K97">
+        <v>88</v>
+      </c>
+      <c r="L97">
+        <v>84</v>
+      </c>
+      <c r="M97">
+        <v>81</v>
+      </c>
+      <c r="N97">
+        <v>82</v>
+      </c>
+      <c r="O97">
+        <v>78</v>
+      </c>
+      <c r="P97">
+        <v>78</v>
+      </c>
+      <c r="Q97">
+        <v>80</v>
+      </c>
+      <c r="R97">
+        <v>79</v>
+      </c>
+      <c r="S97">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>80</v>
+      </c>
+      <c r="F98">
+        <v>88</v>
+      </c>
+      <c r="G98">
+        <v>80</v>
+      </c>
+      <c r="H98">
+        <v>80</v>
+      </c>
+      <c r="I98">
+        <v>80</v>
+      </c>
+      <c r="J98">
+        <v>82</v>
+      </c>
+      <c r="K98">
+        <v>88</v>
+      </c>
+      <c r="L98">
+        <v>84</v>
+      </c>
+      <c r="M98">
+        <v>81</v>
+      </c>
+      <c r="N98">
+        <v>82</v>
+      </c>
+      <c r="O98">
+        <v>78</v>
+      </c>
+      <c r="P98">
+        <v>78</v>
+      </c>
+      <c r="Q98">
+        <v>84</v>
+      </c>
+      <c r="R98">
+        <v>81</v>
+      </c>
+      <c r="S98">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>80</v>
+      </c>
+      <c r="F99">
+        <v>88</v>
+      </c>
+      <c r="G99">
+        <v>80</v>
+      </c>
+      <c r="H99">
+        <v>80</v>
+      </c>
+      <c r="I99">
+        <v>80</v>
+      </c>
+      <c r="J99">
+        <v>82</v>
+      </c>
+      <c r="K99">
+        <v>88</v>
+      </c>
+      <c r="L99">
+        <v>84</v>
+      </c>
+      <c r="M99">
+        <v>81</v>
+      </c>
+      <c r="N99">
+        <v>82</v>
+      </c>
+      <c r="O99">
+        <v>78</v>
+      </c>
+      <c r="P99">
+        <v>78</v>
+      </c>
+      <c r="Q99">
+        <v>80</v>
+      </c>
+      <c r="R99">
+        <v>80</v>
+      </c>
+      <c r="S99">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>80</v>
+      </c>
+      <c r="F100">
+        <v>88</v>
+      </c>
+      <c r="G100">
+        <v>80</v>
+      </c>
+      <c r="H100">
+        <v>80</v>
+      </c>
+      <c r="I100">
+        <v>80</v>
+      </c>
+      <c r="J100">
+        <v>82</v>
+      </c>
+      <c r="K100">
+        <v>88</v>
+      </c>
+      <c r="L100">
+        <v>84</v>
+      </c>
+      <c r="M100">
+        <v>81</v>
+      </c>
+      <c r="N100">
+        <v>82</v>
+      </c>
+      <c r="O100">
+        <v>78</v>
+      </c>
+      <c r="P100">
+        <v>78</v>
+      </c>
+      <c r="Q100">
+        <v>78</v>
+      </c>
+      <c r="R100">
+        <v>79</v>
+      </c>
+      <c r="S100">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>80</v>
+      </c>
+      <c r="F101">
+        <v>88</v>
+      </c>
+      <c r="G101">
+        <v>80</v>
+      </c>
+      <c r="H101">
+        <v>80</v>
+      </c>
+      <c r="I101">
+        <v>80</v>
+      </c>
+      <c r="J101">
+        <v>82</v>
+      </c>
+      <c r="K101">
+        <v>88</v>
+      </c>
+      <c r="L101">
+        <v>84</v>
+      </c>
+      <c r="M101">
+        <v>81</v>
+      </c>
+      <c r="N101">
+        <v>82</v>
+      </c>
+      <c r="O101">
+        <v>78</v>
+      </c>
+      <c r="P101">
+        <v>78</v>
+      </c>
+      <c r="Q101">
+        <v>82</v>
+      </c>
+      <c r="R101">
+        <v>81</v>
+      </c>
+      <c r="S101">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>80</v>
+      </c>
+      <c r="F102">
+        <v>88</v>
+      </c>
+      <c r="G102">
+        <v>80</v>
+      </c>
+      <c r="H102">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>80</v>
+      </c>
+      <c r="J102">
+        <v>82</v>
+      </c>
+      <c r="K102">
+        <v>88</v>
+      </c>
+      <c r="L102">
+        <v>84</v>
+      </c>
+      <c r="M102">
+        <v>81</v>
+      </c>
+      <c r="N102">
+        <v>82</v>
+      </c>
+      <c r="O102">
+        <v>78</v>
+      </c>
+      <c r="P102">
+        <v>78</v>
+      </c>
+      <c r="Q102">
+        <v>78</v>
+      </c>
+      <c r="R102">
+        <v>81</v>
+      </c>
+      <c r="S102">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>80</v>
+      </c>
+      <c r="F103">
+        <v>88</v>
+      </c>
+      <c r="G103">
+        <v>80</v>
+      </c>
+      <c r="H103">
+        <v>80</v>
+      </c>
+      <c r="I103">
+        <v>80</v>
+      </c>
+      <c r="J103">
+        <v>82</v>
+      </c>
+      <c r="K103">
+        <v>88</v>
+      </c>
+      <c r="L103">
+        <v>84</v>
+      </c>
+      <c r="M103">
+        <v>81</v>
+      </c>
+      <c r="N103">
+        <v>82</v>
+      </c>
+      <c r="O103">
+        <v>78</v>
+      </c>
+      <c r="P103">
+        <v>78</v>
+      </c>
+      <c r="Q103">
+        <v>78</v>
+      </c>
+      <c r="R103">
+        <v>81</v>
+      </c>
+      <c r="S103">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C104" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>80</v>
+      </c>
+      <c r="F104">
+        <v>88</v>
+      </c>
+      <c r="G104">
+        <v>80</v>
+      </c>
+      <c r="H104">
+        <v>80</v>
+      </c>
+      <c r="I104">
+        <v>80</v>
+      </c>
+      <c r="J104">
+        <v>82</v>
+      </c>
+      <c r="K104">
+        <v>88</v>
+      </c>
+      <c r="L104">
+        <v>84</v>
+      </c>
+      <c r="M104">
+        <v>81</v>
+      </c>
+      <c r="N104">
+        <v>82</v>
+      </c>
+      <c r="O104">
+        <v>78</v>
+      </c>
+      <c r="P104">
+        <v>78</v>
+      </c>
+      <c r="Q104">
+        <v>84</v>
+      </c>
+      <c r="R104">
+        <v>82</v>
+      </c>
+      <c r="S104">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>80</v>
+      </c>
+      <c r="F105">
+        <v>88</v>
+      </c>
+      <c r="G105">
+        <v>80</v>
+      </c>
+      <c r="H105">
+        <v>80</v>
+      </c>
+      <c r="I105">
+        <v>80</v>
+      </c>
+      <c r="J105">
+        <v>82</v>
+      </c>
+      <c r="K105">
+        <v>88</v>
+      </c>
+      <c r="L105">
+        <v>84</v>
+      </c>
+      <c r="M105">
+        <v>81</v>
+      </c>
+      <c r="N105">
+        <v>82</v>
+      </c>
+      <c r="O105">
+        <v>78</v>
+      </c>
+      <c r="P105">
+        <v>78</v>
+      </c>
+      <c r="Q105">
+        <v>78</v>
+      </c>
+      <c r="R105">
+        <v>79</v>
+      </c>
+      <c r="S105">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>80</v>
+      </c>
+      <c r="F106">
+        <v>88</v>
+      </c>
+      <c r="G106">
+        <v>80</v>
+      </c>
+      <c r="H106">
+        <v>80</v>
+      </c>
+      <c r="I106">
+        <v>80</v>
+      </c>
+      <c r="J106">
+        <v>82</v>
+      </c>
+      <c r="K106">
+        <v>88</v>
+      </c>
+      <c r="L106">
+        <v>84</v>
+      </c>
+      <c r="M106">
+        <v>81</v>
+      </c>
+      <c r="N106">
+        <v>82</v>
+      </c>
+      <c r="O106">
+        <v>78</v>
+      </c>
+      <c r="P106">
+        <v>78</v>
+      </c>
+      <c r="Q106">
+        <v>84</v>
+      </c>
+      <c r="R106">
+        <v>79</v>
+      </c>
+      <c r="S106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
+        <v>190</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>80</v>
+      </c>
+      <c r="F107">
+        <v>88</v>
+      </c>
+      <c r="G107">
+        <v>80</v>
+      </c>
+      <c r="H107">
+        <v>80</v>
+      </c>
+      <c r="I107">
+        <v>80</v>
+      </c>
+      <c r="J107">
+        <v>82</v>
+      </c>
+      <c r="K107">
+        <v>88</v>
+      </c>
+      <c r="L107">
+        <v>84</v>
+      </c>
+      <c r="M107">
+        <v>81</v>
+      </c>
+      <c r="N107">
+        <v>82</v>
+      </c>
+      <c r="O107">
+        <v>78</v>
+      </c>
+      <c r="P107">
+        <v>78</v>
+      </c>
+      <c r="Q107">
+        <v>82</v>
+      </c>
+      <c r="R107">
+        <v>80</v>
+      </c>
+      <c r="S107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>80</v>
+      </c>
+      <c r="F108">
+        <v>88</v>
+      </c>
+      <c r="G108">
+        <v>80</v>
+      </c>
+      <c r="H108">
+        <v>80</v>
+      </c>
+      <c r="I108">
+        <v>80</v>
+      </c>
+      <c r="J108">
+        <v>82</v>
+      </c>
+      <c r="K108">
+        <v>88</v>
+      </c>
+      <c r="L108">
+        <v>84</v>
+      </c>
+      <c r="M108">
+        <v>81</v>
+      </c>
+      <c r="N108">
+        <v>82</v>
+      </c>
+      <c r="O108">
+        <v>78</v>
+      </c>
+      <c r="P108">
+        <v>78</v>
+      </c>
+      <c r="Q108">
+        <v>84</v>
+      </c>
+      <c r="R108">
+        <v>79</v>
+      </c>
+      <c r="S108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>80</v>
+      </c>
+      <c r="F109">
+        <v>88</v>
+      </c>
+      <c r="G109">
+        <v>80</v>
+      </c>
+      <c r="H109">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>80</v>
+      </c>
+      <c r="J109">
+        <v>82</v>
+      </c>
+      <c r="K109">
+        <v>88</v>
+      </c>
+      <c r="L109">
+        <v>84</v>
+      </c>
+      <c r="M109">
+        <v>81</v>
+      </c>
+      <c r="N109">
+        <v>82</v>
+      </c>
+      <c r="O109">
+        <v>78</v>
+      </c>
+      <c r="P109">
+        <v>78</v>
+      </c>
+      <c r="Q109">
+        <v>78</v>
+      </c>
+      <c r="R109">
+        <v>81</v>
+      </c>
+      <c r="S109">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" t="s">
+        <v>196</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>80</v>
+      </c>
+      <c r="F110">
+        <v>88</v>
+      </c>
+      <c r="G110">
+        <v>80</v>
+      </c>
+      <c r="H110">
+        <v>80</v>
+      </c>
+      <c r="I110">
+        <v>80</v>
+      </c>
+      <c r="J110">
+        <v>82</v>
+      </c>
+      <c r="K110">
+        <v>88</v>
+      </c>
+      <c r="L110">
+        <v>84</v>
+      </c>
+      <c r="M110">
+        <v>81</v>
+      </c>
+      <c r="N110">
+        <v>82</v>
+      </c>
+      <c r="O110">
+        <v>78</v>
+      </c>
+      <c r="P110">
+        <v>78</v>
+      </c>
+      <c r="Q110">
+        <v>78</v>
+      </c>
+      <c r="R110">
+        <v>79</v>
+      </c>
+      <c r="S110">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>80</v>
+      </c>
+      <c r="F111">
+        <v>88</v>
+      </c>
+      <c r="G111">
+        <v>80</v>
+      </c>
+      <c r="H111">
+        <v>80</v>
+      </c>
+      <c r="I111">
+        <v>80</v>
+      </c>
+      <c r="J111">
+        <v>82</v>
+      </c>
+      <c r="K111">
+        <v>88</v>
+      </c>
+      <c r="L111">
+        <v>84</v>
+      </c>
+      <c r="M111">
+        <v>81</v>
+      </c>
+      <c r="N111">
+        <v>82</v>
+      </c>
+      <c r="O111">
+        <v>78</v>
+      </c>
+      <c r="P111">
+        <v>78</v>
+      </c>
+      <c r="Q111">
+        <v>78</v>
+      </c>
+      <c r="R111">
+        <v>80</v>
+      </c>
+      <c r="S111">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>80</v>
+      </c>
+      <c r="F112">
+        <v>88</v>
+      </c>
+      <c r="G112">
+        <v>80</v>
+      </c>
+      <c r="H112">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>80</v>
+      </c>
+      <c r="J112">
+        <v>82</v>
+      </c>
+      <c r="K112">
+        <v>88</v>
+      </c>
+      <c r="L112">
+        <v>84</v>
+      </c>
+      <c r="M112">
+        <v>81</v>
+      </c>
+      <c r="N112">
+        <v>82</v>
+      </c>
+      <c r="O112">
+        <v>78</v>
+      </c>
+      <c r="P112">
+        <v>78</v>
+      </c>
+      <c r="Q112">
+        <v>78</v>
+      </c>
+      <c r="R112">
+        <v>80</v>
+      </c>
+      <c r="S112">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>80</v>
+      </c>
+      <c r="F113">
+        <v>88</v>
+      </c>
+      <c r="G113">
+        <v>80</v>
+      </c>
+      <c r="H113">
+        <v>80</v>
+      </c>
+      <c r="I113">
+        <v>80</v>
+      </c>
+      <c r="J113">
+        <v>82</v>
+      </c>
+      <c r="K113">
+        <v>88</v>
+      </c>
+      <c r="L113">
+        <v>84</v>
+      </c>
+      <c r="M113">
+        <v>81</v>
+      </c>
+      <c r="N113">
+        <v>82</v>
+      </c>
+      <c r="O113">
+        <v>78</v>
+      </c>
+      <c r="P113">
+        <v>78</v>
+      </c>
+      <c r="Q113">
+        <v>78</v>
+      </c>
+      <c r="R113">
+        <v>81</v>
+      </c>
+      <c r="S113">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>80</v>
+      </c>
+      <c r="F114">
+        <v>88</v>
+      </c>
+      <c r="G114">
+        <v>80</v>
+      </c>
+      <c r="H114">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>80</v>
+      </c>
+      <c r="J114">
+        <v>82</v>
+      </c>
+      <c r="K114">
+        <v>88</v>
+      </c>
+      <c r="L114">
+        <v>84</v>
+      </c>
+      <c r="M114">
+        <v>81</v>
+      </c>
+      <c r="N114">
+        <v>82</v>
+      </c>
+      <c r="O114">
+        <v>78</v>
+      </c>
+      <c r="P114">
+        <v>78</v>
+      </c>
+      <c r="Q114">
+        <v>80</v>
+      </c>
+      <c r="R114">
+        <v>80</v>
+      </c>
+      <c r="S114">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>80</v>
+      </c>
+      <c r="F115">
+        <v>88</v>
+      </c>
+      <c r="G115">
+        <v>80</v>
+      </c>
+      <c r="H115">
+        <v>80</v>
+      </c>
+      <c r="I115">
+        <v>80</v>
+      </c>
+      <c r="J115">
+        <v>82</v>
+      </c>
+      <c r="K115">
+        <v>88</v>
+      </c>
+      <c r="L115">
+        <v>84</v>
+      </c>
+      <c r="M115">
+        <v>81</v>
+      </c>
+      <c r="N115">
+        <v>82</v>
+      </c>
+      <c r="O115">
+        <v>78</v>
+      </c>
+      <c r="P115">
+        <v>78</v>
+      </c>
+      <c r="Q115">
+        <v>82</v>
+      </c>
+      <c r="R115">
+        <v>80</v>
+      </c>
+      <c r="S115">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>80</v>
+      </c>
+      <c r="F116">
+        <v>88</v>
+      </c>
+      <c r="G116">
+        <v>80</v>
+      </c>
+      <c r="H116">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>80</v>
+      </c>
+      <c r="J116">
+        <v>82</v>
+      </c>
+      <c r="K116">
+        <v>88</v>
+      </c>
+      <c r="L116">
+        <v>84</v>
+      </c>
+      <c r="M116">
+        <v>81</v>
+      </c>
+      <c r="N116">
+        <v>82</v>
+      </c>
+      <c r="O116">
+        <v>78</v>
+      </c>
+      <c r="P116">
+        <v>78</v>
+      </c>
+      <c r="Q116">
+        <v>80</v>
+      </c>
+      <c r="R116">
+        <v>79</v>
+      </c>
+      <c r="S116">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>80</v>
+      </c>
+      <c r="F117">
+        <v>88</v>
+      </c>
+      <c r="G117">
+        <v>80</v>
+      </c>
+      <c r="H117">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>80</v>
+      </c>
+      <c r="J117">
+        <v>82</v>
+      </c>
+      <c r="K117">
+        <v>88</v>
+      </c>
+      <c r="L117">
+        <v>84</v>
+      </c>
+      <c r="M117">
+        <v>81</v>
+      </c>
+      <c r="N117">
+        <v>82</v>
+      </c>
+      <c r="O117">
+        <v>78</v>
+      </c>
+      <c r="P117">
+        <v>78</v>
+      </c>
+      <c r="Q117">
+        <v>84</v>
+      </c>
+      <c r="R117">
+        <v>80</v>
+      </c>
+      <c r="S117">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" t="s">
+        <v>212</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>80</v>
+      </c>
+      <c r="F118">
+        <v>88</v>
+      </c>
+      <c r="G118">
+        <v>80</v>
+      </c>
+      <c r="H118">
+        <v>80</v>
+      </c>
+      <c r="I118">
+        <v>80</v>
+      </c>
+      <c r="J118">
+        <v>82</v>
+      </c>
+      <c r="K118">
+        <v>88</v>
+      </c>
+      <c r="L118">
+        <v>84</v>
+      </c>
+      <c r="M118">
+        <v>81</v>
+      </c>
+      <c r="N118">
+        <v>82</v>
+      </c>
+      <c r="O118">
+        <v>78</v>
+      </c>
+      <c r="P118">
+        <v>78</v>
+      </c>
+      <c r="Q118">
+        <v>78</v>
+      </c>
+      <c r="R118">
+        <v>80</v>
+      </c>
+      <c r="S118">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>213</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>80</v>
+      </c>
+      <c r="F119">
+        <v>88</v>
+      </c>
+      <c r="G119">
+        <v>80</v>
+      </c>
+      <c r="H119">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>80</v>
+      </c>
+      <c r="J119">
+        <v>82</v>
+      </c>
+      <c r="K119">
+        <v>88</v>
+      </c>
+      <c r="L119">
+        <v>84</v>
+      </c>
+      <c r="M119">
+        <v>81</v>
+      </c>
+      <c r="N119">
+        <v>82</v>
+      </c>
+      <c r="O119">
+        <v>78</v>
+      </c>
+      <c r="P119">
+        <v>78</v>
+      </c>
+      <c r="Q119">
+        <v>78</v>
+      </c>
+      <c r="R119">
+        <v>79</v>
+      </c>
+      <c r="S119">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>80</v>
+      </c>
+      <c r="F120">
+        <v>88</v>
+      </c>
+      <c r="G120">
+        <v>80</v>
+      </c>
+      <c r="H120">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>80</v>
+      </c>
+      <c r="J120">
+        <v>82</v>
+      </c>
+      <c r="K120">
+        <v>88</v>
+      </c>
+      <c r="L120">
+        <v>84</v>
+      </c>
+      <c r="M120">
+        <v>81</v>
+      </c>
+      <c r="N120">
+        <v>82</v>
+      </c>
+      <c r="O120">
+        <v>78</v>
+      </c>
+      <c r="P120">
+        <v>78</v>
+      </c>
+      <c r="Q120">
+        <v>78</v>
+      </c>
+      <c r="R120">
+        <v>79</v>
+      </c>
+      <c r="S120">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>215</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>80</v>
+      </c>
+      <c r="F121">
+        <v>88</v>
+      </c>
+      <c r="G121">
+        <v>80</v>
+      </c>
+      <c r="H121">
+        <v>80</v>
+      </c>
+      <c r="I121">
+        <v>80</v>
+      </c>
+      <c r="J121">
+        <v>82</v>
+      </c>
+      <c r="K121">
+        <v>88</v>
+      </c>
+      <c r="L121">
+        <v>84</v>
+      </c>
+      <c r="M121">
+        <v>81</v>
+      </c>
+      <c r="N121">
+        <v>82</v>
+      </c>
+      <c r="O121">
+        <v>78</v>
+      </c>
+      <c r="P121">
+        <v>78</v>
+      </c>
+      <c r="Q121">
+        <v>78</v>
+      </c>
+      <c r="R121">
+        <v>80</v>
+      </c>
+      <c r="S121">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C122" t="s">
+        <v>217</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>80</v>
+      </c>
+      <c r="F122">
+        <v>88</v>
+      </c>
+      <c r="G122">
+        <v>80</v>
+      </c>
+      <c r="H122">
+        <v>80</v>
+      </c>
+      <c r="I122">
+        <v>80</v>
+      </c>
+      <c r="J122">
+        <v>82</v>
+      </c>
+      <c r="K122">
+        <v>88</v>
+      </c>
+      <c r="L122">
+        <v>84</v>
+      </c>
+      <c r="M122">
+        <v>81</v>
+      </c>
+      <c r="N122">
+        <v>82</v>
+      </c>
+      <c r="O122">
+        <v>78</v>
+      </c>
+      <c r="P122">
+        <v>78</v>
+      </c>
+      <c r="Q122">
+        <v>78</v>
+      </c>
+      <c r="R122">
+        <v>78</v>
+      </c>
+      <c r="S122">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>80</v>
+      </c>
+      <c r="F123">
+        <v>88</v>
+      </c>
+      <c r="G123">
+        <v>80</v>
+      </c>
+      <c r="H123">
+        <v>80</v>
+      </c>
+      <c r="I123">
+        <v>80</v>
+      </c>
+      <c r="J123">
+        <v>82</v>
+      </c>
+      <c r="K123">
+        <v>88</v>
+      </c>
+      <c r="L123">
+        <v>84</v>
+      </c>
+      <c r="M123">
+        <v>81</v>
+      </c>
+      <c r="N123">
+        <v>82</v>
+      </c>
+      <c r="O123">
+        <v>78</v>
+      </c>
+      <c r="P123">
+        <v>78</v>
+      </c>
+      <c r="Q123">
+        <v>78</v>
+      </c>
+      <c r="R123">
+        <v>80</v>
+      </c>
+      <c r="S123">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>219</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>80</v>
+      </c>
+      <c r="F124">
+        <v>88</v>
+      </c>
+      <c r="G124">
+        <v>80</v>
+      </c>
+      <c r="H124">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>80</v>
+      </c>
+      <c r="J124">
+        <v>82</v>
+      </c>
+      <c r="K124">
+        <v>88</v>
+      </c>
+      <c r="L124">
+        <v>84</v>
+      </c>
+      <c r="M124">
+        <v>81</v>
+      </c>
+      <c r="N124">
+        <v>82</v>
+      </c>
+      <c r="O124">
+        <v>78</v>
+      </c>
+      <c r="P124">
+        <v>78</v>
+      </c>
+      <c r="Q124">
+        <v>78</v>
+      </c>
+      <c r="R124">
+        <v>80</v>
+      </c>
+      <c r="S124">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>80</v>
+      </c>
+      <c r="F125">
+        <v>88</v>
+      </c>
+      <c r="G125">
+        <v>80</v>
+      </c>
+      <c r="H125">
+        <v>80</v>
+      </c>
+      <c r="I125">
+        <v>80</v>
+      </c>
+      <c r="J125">
+        <v>82</v>
+      </c>
+      <c r="K125">
+        <v>88</v>
+      </c>
+      <c r="L125">
+        <v>84</v>
+      </c>
+      <c r="M125">
+        <v>81</v>
+      </c>
+      <c r="N125">
+        <v>82</v>
+      </c>
+      <c r="O125">
+        <v>78</v>
+      </c>
+      <c r="P125">
+        <v>78</v>
+      </c>
+      <c r="Q125">
+        <v>78</v>
+      </c>
+      <c r="R125">
+        <v>79</v>
+      </c>
+      <c r="S125">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>221</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>80</v>
+      </c>
+      <c r="F126">
+        <v>88</v>
+      </c>
+      <c r="G126">
+        <v>80</v>
+      </c>
+      <c r="H126">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>80</v>
+      </c>
+      <c r="J126">
+        <v>82</v>
+      </c>
+      <c r="K126">
+        <v>88</v>
+      </c>
+      <c r="L126">
+        <v>84</v>
+      </c>
+      <c r="M126">
+        <v>81</v>
+      </c>
+      <c r="N126">
+        <v>82</v>
+      </c>
+      <c r="O126">
+        <v>78</v>
+      </c>
+      <c r="P126">
+        <v>78</v>
+      </c>
+      <c r="Q126">
+        <v>78</v>
+      </c>
+      <c r="R126">
+        <v>78</v>
+      </c>
+      <c r="S126">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" t="s">
+        <v>223</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>80</v>
+      </c>
+      <c r="F127">
+        <v>88</v>
+      </c>
+      <c r="G127">
+        <v>80</v>
+      </c>
+      <c r="H127">
+        <v>80</v>
+      </c>
+      <c r="I127">
+        <v>80</v>
+      </c>
+      <c r="J127">
+        <v>82</v>
+      </c>
+      <c r="K127">
+        <v>88</v>
+      </c>
+      <c r="L127">
+        <v>84</v>
+      </c>
+      <c r="M127">
+        <v>81</v>
+      </c>
+      <c r="N127">
+        <v>82</v>
+      </c>
+      <c r="O127">
+        <v>78</v>
+      </c>
+      <c r="P127">
+        <v>78</v>
+      </c>
+      <c r="Q127">
+        <v>78</v>
+      </c>
+      <c r="R127">
+        <v>80</v>
+      </c>
+      <c r="S127">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>80</v>
+      </c>
+      <c r="F128">
+        <v>88</v>
+      </c>
+      <c r="G128">
+        <v>80</v>
+      </c>
+      <c r="H128">
+        <v>80</v>
+      </c>
+      <c r="I128">
+        <v>80</v>
+      </c>
+      <c r="J128">
+        <v>82</v>
+      </c>
+      <c r="K128">
+        <v>88</v>
+      </c>
+      <c r="L128">
+        <v>84</v>
+      </c>
+      <c r="M128">
+        <v>81</v>
+      </c>
+      <c r="N128">
+        <v>82</v>
+      </c>
+      <c r="O128">
+        <v>78</v>
+      </c>
+      <c r="P128">
+        <v>78</v>
+      </c>
+      <c r="Q128">
+        <v>78</v>
+      </c>
+      <c r="R128">
+        <v>81</v>
+      </c>
+      <c r="S128">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>80</v>
+      </c>
+      <c r="F129">
+        <v>88</v>
+      </c>
+      <c r="G129">
+        <v>80</v>
+      </c>
+      <c r="H129">
+        <v>80</v>
+      </c>
+      <c r="I129">
+        <v>80</v>
+      </c>
+      <c r="J129">
+        <v>82</v>
+      </c>
+      <c r="K129">
+        <v>88</v>
+      </c>
+      <c r="L129">
+        <v>84</v>
+      </c>
+      <c r="M129">
+        <v>81</v>
+      </c>
+      <c r="N129">
+        <v>82</v>
+      </c>
+      <c r="O129">
+        <v>78</v>
+      </c>
+      <c r="P129">
+        <v>78</v>
+      </c>
+      <c r="Q129">
+        <v>78</v>
+      </c>
+      <c r="R129">
+        <v>81</v>
+      </c>
+      <c r="S129">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" t="s">
+        <v>229</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>80</v>
+      </c>
+      <c r="F130">
+        <v>88</v>
+      </c>
+      <c r="G130">
+        <v>80</v>
+      </c>
+      <c r="H130">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>80</v>
+      </c>
+      <c r="J130">
+        <v>82</v>
+      </c>
+      <c r="K130">
+        <v>88</v>
+      </c>
+      <c r="L130">
+        <v>84</v>
+      </c>
+      <c r="M130">
+        <v>81</v>
+      </c>
+      <c r="N130">
+        <v>82</v>
+      </c>
+      <c r="O130">
+        <v>78</v>
+      </c>
+      <c r="P130">
+        <v>78</v>
+      </c>
+      <c r="Q130">
+        <v>80</v>
+      </c>
+      <c r="R130">
+        <v>81</v>
+      </c>
+      <c r="S130">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
+        <v>231</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>80</v>
+      </c>
+      <c r="F131">
+        <v>88</v>
+      </c>
+      <c r="G131">
+        <v>80</v>
+      </c>
+      <c r="H131">
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <v>80</v>
+      </c>
+      <c r="J131">
+        <v>82</v>
+      </c>
+      <c r="K131">
+        <v>88</v>
+      </c>
+      <c r="L131">
+        <v>84</v>
+      </c>
+      <c r="M131">
+        <v>81</v>
+      </c>
+      <c r="N131">
+        <v>82</v>
+      </c>
+      <c r="O131">
+        <v>78</v>
+      </c>
+      <c r="P131">
+        <v>78</v>
+      </c>
+      <c r="Q131">
+        <v>84</v>
+      </c>
+      <c r="R131">
+        <v>80</v>
+      </c>
+      <c r="S131">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" t="s">
+        <v>233</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>80</v>
+      </c>
+      <c r="F132">
+        <v>88</v>
+      </c>
+      <c r="G132">
+        <v>80</v>
+      </c>
+      <c r="H132">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <v>80</v>
+      </c>
+      <c r="J132">
+        <v>82</v>
+      </c>
+      <c r="K132">
+        <v>88</v>
+      </c>
+      <c r="L132">
+        <v>84</v>
+      </c>
+      <c r="M132">
+        <v>81</v>
+      </c>
+      <c r="N132">
+        <v>82</v>
+      </c>
+      <c r="O132">
+        <v>78</v>
+      </c>
+      <c r="P132">
+        <v>78</v>
+      </c>
+      <c r="Q132">
+        <v>80</v>
+      </c>
+      <c r="R132">
+        <v>80</v>
+      </c>
+      <c r="S132">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" t="s">
+        <v>235</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>80</v>
+      </c>
+      <c r="F133">
+        <v>88</v>
+      </c>
+      <c r="G133">
+        <v>80</v>
+      </c>
+      <c r="H133">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <v>80</v>
+      </c>
+      <c r="J133">
+        <v>82</v>
+      </c>
+      <c r="K133">
+        <v>88</v>
+      </c>
+      <c r="L133">
+        <v>84</v>
+      </c>
+      <c r="M133">
+        <v>81</v>
+      </c>
+      <c r="N133">
+        <v>82</v>
+      </c>
+      <c r="O133">
+        <v>78</v>
+      </c>
+      <c r="P133">
+        <v>78</v>
+      </c>
+      <c r="Q133">
+        <v>82</v>
+      </c>
+      <c r="R133">
+        <v>81</v>
+      </c>
+      <c r="S133">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>80</v>
+      </c>
+      <c r="F134">
+        <v>88</v>
+      </c>
+      <c r="G134">
+        <v>80</v>
+      </c>
+      <c r="H134">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <v>80</v>
+      </c>
+      <c r="J134">
+        <v>82</v>
+      </c>
+      <c r="K134">
+        <v>88</v>
+      </c>
+      <c r="L134">
+        <v>84</v>
+      </c>
+      <c r="M134">
+        <v>81</v>
+      </c>
+      <c r="N134">
+        <v>82</v>
+      </c>
+      <c r="O134">
+        <v>78</v>
+      </c>
+      <c r="P134">
+        <v>78</v>
+      </c>
+      <c r="Q134">
+        <v>80</v>
+      </c>
+      <c r="R134">
+        <v>79</v>
+      </c>
+      <c r="S134">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" t="s">
+        <v>239</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>80</v>
+      </c>
+      <c r="F135">
+        <v>88</v>
+      </c>
+      <c r="G135">
+        <v>80</v>
+      </c>
+      <c r="H135">
+        <v>80</v>
+      </c>
+      <c r="I135">
+        <v>80</v>
+      </c>
+      <c r="J135">
+        <v>82</v>
+      </c>
+      <c r="K135">
+        <v>88</v>
+      </c>
+      <c r="L135">
+        <v>84</v>
+      </c>
+      <c r="M135">
+        <v>81</v>
+      </c>
+      <c r="N135">
+        <v>82</v>
+      </c>
+      <c r="O135">
+        <v>78</v>
+      </c>
+      <c r="P135">
+        <v>78</v>
+      </c>
+      <c r="Q135">
+        <v>80</v>
+      </c>
+      <c r="R135">
+        <v>80</v>
+      </c>
+      <c r="S135">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>80</v>
+      </c>
+      <c r="F136">
+        <v>88</v>
+      </c>
+      <c r="G136">
+        <v>80</v>
+      </c>
+      <c r="H136">
+        <v>80</v>
+      </c>
+      <c r="I136">
+        <v>80</v>
+      </c>
+      <c r="J136">
+        <v>82</v>
+      </c>
+      <c r="K136">
+        <v>88</v>
+      </c>
+      <c r="L136">
+        <v>84</v>
+      </c>
+      <c r="M136">
+        <v>81</v>
+      </c>
+      <c r="N136">
+        <v>82</v>
+      </c>
+      <c r="O136">
+        <v>78</v>
+      </c>
+      <c r="P136">
+        <v>78</v>
+      </c>
+      <c r="Q136">
+        <v>78</v>
+      </c>
+      <c r="R136">
+        <v>80</v>
+      </c>
+      <c r="S136">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>80</v>
+      </c>
+      <c r="F137">
+        <v>88</v>
+      </c>
+      <c r="G137">
+        <v>80</v>
+      </c>
+      <c r="H137">
+        <v>80</v>
+      </c>
+      <c r="I137">
+        <v>80</v>
+      </c>
+      <c r="J137">
+        <v>82</v>
+      </c>
+      <c r="K137">
+        <v>88</v>
+      </c>
+      <c r="L137">
+        <v>84</v>
+      </c>
+      <c r="M137">
+        <v>81</v>
+      </c>
+      <c r="N137">
+        <v>82</v>
+      </c>
+      <c r="O137">
+        <v>78</v>
+      </c>
+      <c r="P137">
+        <v>78</v>
+      </c>
+      <c r="Q137">
+        <v>78</v>
+      </c>
+      <c r="R137">
+        <v>81</v>
+      </c>
+      <c r="S137">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" t="s">
+        <v>245</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>80</v>
+      </c>
+      <c r="F138">
+        <v>88</v>
+      </c>
+      <c r="G138">
+        <v>80</v>
+      </c>
+      <c r="H138">
+        <v>80</v>
+      </c>
+      <c r="I138">
+        <v>80</v>
+      </c>
+      <c r="J138">
+        <v>82</v>
+      </c>
+      <c r="K138">
+        <v>88</v>
+      </c>
+      <c r="L138">
+        <v>84</v>
+      </c>
+      <c r="M138">
+        <v>81</v>
+      </c>
+      <c r="N138">
+        <v>82</v>
+      </c>
+      <c r="O138">
+        <v>78</v>
+      </c>
+      <c r="P138">
+        <v>78</v>
+      </c>
+      <c r="Q138">
+        <v>80</v>
+      </c>
+      <c r="R138">
+        <v>80</v>
+      </c>
+      <c r="S138">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>80</v>
+      </c>
+      <c r="F139">
+        <v>88</v>
+      </c>
+      <c r="G139">
+        <v>80</v>
+      </c>
+      <c r="H139">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>80</v>
+      </c>
+      <c r="J139">
+        <v>82</v>
+      </c>
+      <c r="K139">
+        <v>88</v>
+      </c>
+      <c r="L139">
+        <v>84</v>
+      </c>
+      <c r="M139">
+        <v>81</v>
+      </c>
+      <c r="N139">
+        <v>82</v>
+      </c>
+      <c r="O139">
+        <v>78</v>
+      </c>
+      <c r="P139">
+        <v>78</v>
+      </c>
+      <c r="Q139">
+        <v>80</v>
+      </c>
+      <c r="R139">
+        <v>80</v>
+      </c>
+      <c r="S139">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>80</v>
+      </c>
+      <c r="F140">
+        <v>88</v>
+      </c>
+      <c r="G140">
+        <v>80</v>
+      </c>
+      <c r="H140">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>80</v>
+      </c>
+      <c r="J140">
+        <v>82</v>
+      </c>
+      <c r="K140">
+        <v>88</v>
+      </c>
+      <c r="L140">
+        <v>84</v>
+      </c>
+      <c r="M140">
+        <v>81</v>
+      </c>
+      <c r="N140">
+        <v>82</v>
+      </c>
+      <c r="O140">
+        <v>78</v>
+      </c>
+      <c r="P140">
+        <v>78</v>
+      </c>
+      <c r="Q140">
+        <v>80</v>
+      </c>
+      <c r="R140">
+        <v>79</v>
+      </c>
+      <c r="S140">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>80</v>
+      </c>
+      <c r="F141">
+        <v>88</v>
+      </c>
+      <c r="G141">
+        <v>80</v>
+      </c>
+      <c r="H141">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <v>80</v>
+      </c>
+      <c r="J141">
+        <v>82</v>
+      </c>
+      <c r="K141">
+        <v>88</v>
+      </c>
+      <c r="L141">
+        <v>84</v>
+      </c>
+      <c r="M141">
+        <v>81</v>
+      </c>
+      <c r="N141">
+        <v>82</v>
+      </c>
+      <c r="O141">
+        <v>78</v>
+      </c>
+      <c r="P141">
+        <v>78</v>
+      </c>
+      <c r="Q141">
+        <v>80</v>
+      </c>
+      <c r="R141">
+        <v>81</v>
+      </c>
+      <c r="S141">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" t="s">
+        <v>253</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>80</v>
+      </c>
+      <c r="F142">
+        <v>88</v>
+      </c>
+      <c r="G142">
+        <v>80</v>
+      </c>
+      <c r="H142">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>80</v>
+      </c>
+      <c r="J142">
+        <v>82</v>
+      </c>
+      <c r="K142">
+        <v>88</v>
+      </c>
+      <c r="L142">
+        <v>84</v>
+      </c>
+      <c r="M142">
+        <v>81</v>
+      </c>
+      <c r="N142">
+        <v>82</v>
+      </c>
+      <c r="O142">
+        <v>78</v>
+      </c>
+      <c r="P142">
+        <v>78</v>
+      </c>
+      <c r="Q142">
+        <v>78</v>
+      </c>
+      <c r="R142">
+        <v>81</v>
+      </c>
+      <c r="S142">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>80</v>
+      </c>
+      <c r="F143">
+        <v>88</v>
+      </c>
+      <c r="G143">
+        <v>80</v>
+      </c>
+      <c r="H143">
+        <v>80</v>
+      </c>
+      <c r="I143">
+        <v>80</v>
+      </c>
+      <c r="J143">
+        <v>82</v>
+      </c>
+      <c r="K143">
+        <v>88</v>
+      </c>
+      <c r="L143">
+        <v>84</v>
+      </c>
+      <c r="M143">
+        <v>81</v>
+      </c>
+      <c r="N143">
+        <v>82</v>
+      </c>
+      <c r="O143">
+        <v>78</v>
+      </c>
+      <c r="P143">
+        <v>78</v>
+      </c>
+      <c r="Q143">
+        <v>82</v>
+      </c>
+      <c r="R143">
+        <v>82</v>
+      </c>
+      <c r="S143">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>80</v>
+      </c>
+      <c r="F144">
+        <v>88</v>
+      </c>
+      <c r="G144">
+        <v>80</v>
+      </c>
+      <c r="H144">
+        <v>80</v>
+      </c>
+      <c r="I144">
+        <v>80</v>
+      </c>
+      <c r="J144">
+        <v>82</v>
+      </c>
+      <c r="K144">
+        <v>88</v>
+      </c>
+      <c r="L144">
+        <v>84</v>
+      </c>
+      <c r="M144">
+        <v>81</v>
+      </c>
+      <c r="N144">
+        <v>82</v>
+      </c>
+      <c r="O144">
+        <v>78</v>
+      </c>
+      <c r="P144">
+        <v>78</v>
+      </c>
+      <c r="Q144">
+        <v>84</v>
+      </c>
+      <c r="R144">
+        <v>79</v>
+      </c>
+      <c r="S144">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C145" t="s">
+        <v>259</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>80</v>
+      </c>
+      <c r="F145">
+        <v>88</v>
+      </c>
+      <c r="G145">
+        <v>80</v>
+      </c>
+      <c r="H145">
+        <v>80</v>
+      </c>
+      <c r="I145">
+        <v>80</v>
+      </c>
+      <c r="J145">
+        <v>82</v>
+      </c>
+      <c r="K145">
+        <v>88</v>
+      </c>
+      <c r="L145">
+        <v>84</v>
+      </c>
+      <c r="M145">
+        <v>81</v>
+      </c>
+      <c r="N145">
+        <v>82</v>
+      </c>
+      <c r="O145">
+        <v>78</v>
+      </c>
+      <c r="P145">
+        <v>78</v>
+      </c>
+      <c r="Q145">
+        <v>80</v>
+      </c>
+      <c r="R145">
+        <v>80</v>
+      </c>
+      <c r="S145">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>80</v>
+      </c>
+      <c r="F146">
+        <v>88</v>
+      </c>
+      <c r="G146">
+        <v>80</v>
+      </c>
+      <c r="H146">
+        <v>80</v>
+      </c>
+      <c r="I146">
+        <v>80</v>
+      </c>
+      <c r="J146">
+        <v>82</v>
+      </c>
+      <c r="K146">
+        <v>88</v>
+      </c>
+      <c r="L146">
+        <v>84</v>
+      </c>
+      <c r="M146">
+        <v>81</v>
+      </c>
+      <c r="N146">
+        <v>82</v>
+      </c>
+      <c r="O146">
+        <v>78</v>
+      </c>
+      <c r="P146">
+        <v>78</v>
+      </c>
+      <c r="Q146">
+        <v>78</v>
+      </c>
+      <c r="R146">
+        <v>81</v>
+      </c>
+      <c r="S146">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>80</v>
+      </c>
+      <c r="F147">
+        <v>88</v>
+      </c>
+      <c r="G147">
+        <v>80</v>
+      </c>
+      <c r="H147">
+        <v>80</v>
+      </c>
+      <c r="I147">
+        <v>80</v>
+      </c>
+      <c r="J147">
+        <v>82</v>
+      </c>
+      <c r="K147">
+        <v>88</v>
+      </c>
+      <c r="L147">
+        <v>84</v>
+      </c>
+      <c r="M147">
+        <v>81</v>
+      </c>
+      <c r="N147">
+        <v>82</v>
+      </c>
+      <c r="O147">
+        <v>78</v>
+      </c>
+      <c r="P147">
+        <v>78</v>
+      </c>
+      <c r="Q147">
+        <v>78</v>
+      </c>
+      <c r="R147">
+        <v>79</v>
+      </c>
+      <c r="S147">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C148" t="s">
+        <v>265</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>80</v>
+      </c>
+      <c r="F148">
+        <v>88</v>
+      </c>
+      <c r="G148">
+        <v>80</v>
+      </c>
+      <c r="H148">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>80</v>
+      </c>
+      <c r="J148">
+        <v>82</v>
+      </c>
+      <c r="K148">
+        <v>88</v>
+      </c>
+      <c r="L148">
+        <v>84</v>
+      </c>
+      <c r="M148">
+        <v>81</v>
+      </c>
+      <c r="N148">
+        <v>82</v>
+      </c>
+      <c r="O148">
+        <v>78</v>
+      </c>
+      <c r="P148">
+        <v>78</v>
+      </c>
+      <c r="Q148">
+        <v>78</v>
+      </c>
+      <c r="R148">
+        <v>78</v>
+      </c>
+      <c r="S148">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/all.xlsx
+++ b/dataset/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2025\06-Juni\02-Zulfa\backprosiswa\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inang\Downloads\SKRIPSI\backprosiswa\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584A489-7378-4EE3-AAC0-BAC29FE1327C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434484C7-D6F6-4566-B1B3-74D033B2AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70AC6284-4446-41DB-9120-EDD5798763A9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="267">
   <si>
     <t>nama</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>Windi Ayuningsih</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6241D0-5852-4839-8B67-6E50C3332E3E}">
   <dimension ref="A1:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B129" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8169,6 +8172,9 @@
       <c r="A119">
         <v>118</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C119" t="s">
         <v>213</v>
       </c>
@@ -8225,6 +8231,9 @@
       <c r="A120">
         <v>119</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C120" t="s">
         <v>214</v>
       </c>
@@ -8281,6 +8290,9 @@
       <c r="A121">
         <v>120</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C121" t="s">
         <v>215</v>
       </c>
@@ -8396,6 +8408,9 @@
       <c r="A123">
         <v>122</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C123" t="s">
         <v>218</v>
       </c>
@@ -8452,6 +8467,9 @@
       <c r="A124">
         <v>123</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C124" t="s">
         <v>219</v>
       </c>
@@ -8508,6 +8526,9 @@
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C125" t="s">
         <v>220</v>
       </c>
@@ -8563,6 +8584,9 @@
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C126" t="s">
         <v>221</v>
